--- a/Calendario de actividades.xlsx
+++ b/Calendario de actividades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scai\Desktop\11174\es-ES\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A0D22D-E5E0-4FA4-8AAC-790B39C28EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda diaria" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Agenda diaria'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>CALENDARIO DE ACTIVIDADES</t>
   </si>
@@ -87,12 +86,42 @@
   </si>
   <si>
     <t>Implementar y diseñar segudno form, donde vengan opciones y nuevas funciones</t>
+  </si>
+  <si>
+    <t>Sistema de inicio de sesion</t>
+  </si>
+  <si>
+    <t>Los datos seran administrados y solo autorizados por los duenos o creadores de la cuenta</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Toda la informacion del negocio, desde datos, compras, ventas, ganancias, perdidas</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Apartado donde el usuario podra ver, revisar, administrar sus productos, dar de alta, y revisar inventario</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Tienda donde se cobraran los productos y se venderan al cliente</t>
+  </si>
+  <si>
+    <t>1 dias</t>
+  </si>
+  <si>
+    <t>5 dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -100,7 +129,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -624,61 +653,61 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="8" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="9" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="10" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="11" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Fecha" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Good" xfId="14" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="13" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hora" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Input" xfId="5" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="19" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="14" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="19" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="13" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="5" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Fecha" xfId="6"/>
+    <cellStyle name="Hora" xfId="7"/>
+    <cellStyle name="Incorrecto" xfId="15" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="8" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Millares [0]" xfId="9" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="10" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moneda [0]" xfId="11" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="16" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="22" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="17" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="22" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="12" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="21" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="23" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="24" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,11 +723,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Citas" displayName="Citas" ref="B2:C26" totalsRowShown="0">
-  <autoFilter ref="B2:C26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Citas" displayName="Citas" ref="B2:C26" totalsRowShown="0">
+  <autoFilter ref="B2:C26"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ing" dataCellStyle="Hora"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tiempo"/>
+    <tableColumn id="1" name="Ing" dataCellStyle="Hora"/>
+    <tableColumn id="2" name="Tiempo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -710,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -785,23 +814,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -837,23 +849,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1037,34 +1032,34 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="82.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="82.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:7" ht="30" customHeight="1">
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1078,11 +1073,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1092,11 +1087,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1106,11 +1101,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1120,109 +1115,143 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="E10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="E11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="E12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="E13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1">
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="E14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="E15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="E16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="E17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="E23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="E24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="E25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="E26" s="3"/>
       <c r="G26" s="3"/>
